--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1992843.890403475</v>
+        <v>1990550.294946881</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>301.7202353233228</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>15.88548576453979</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>221.3375319414391</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673276</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>322.6209123555518</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.15159618305923</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503991</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>184.4849283993774</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>23.05950344416611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.9393756113364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>30.9719158638759</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>140.939995452456</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.29550035394</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176295</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>3.475606507923219</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340502</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986316</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>28.23631843387527</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>154.0489950679129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>69.8286381302724</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974335</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1670.545504328627</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1317.776849058513</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>944.3110907974335</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974335</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>934.7929217761711</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>1116.441386606411</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2407.14852447922</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2033.68276621814</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1643.543434242328</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205817</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>431.4421061205817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.7468436324423</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>237.8106607045354</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062121</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.395308462682</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2193.56896730804</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167091</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.991767890479</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.1991887469488</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597581</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597581</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773649</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
         <v>235.5284942057738</v>
@@ -6850,58 +6850,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373307</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2376.429105670894</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2156.827640693835</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1867.752414038033</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1613.067925832146</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1323.650755795185</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1095.661204897168</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.8686257536381</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013352</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822877</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>32.92052192790956</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557219056</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>202.6501519448711</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.89260457060089</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>111.197647871372</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.31997266427236</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948062</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.7088678813209</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788707</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>117.184729589056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823372</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>98.08864825591513</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.089149691</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,7 +26436,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26448,10 +26448,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768843</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770890.7275179876</v>
+        <v>-770890.7275179877</v>
       </c>
       <c r="C6" t="n">
-        <v>174222.377638379</v>
+        <v>174222.3776383792</v>
       </c>
       <c r="D6" t="n">
-        <v>377661.119250485</v>
+        <v>377661.1192504848</v>
       </c>
       <c r="E6" t="n">
-        <v>128520.4838299731</v>
+        <v>128485.7459045373</v>
       </c>
       <c r="F6" t="n">
-        <v>453932.945637329</v>
+        <v>453898.207711893</v>
       </c>
       <c r="G6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="H6" t="n">
-        <v>453932.9456373287</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="I6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="J6" t="n">
-        <v>286327.7678273462</v>
+        <v>286293.0299019103</v>
       </c>
       <c r="K6" t="n">
-        <v>404822.8529312741</v>
+        <v>404788.1150058387</v>
       </c>
       <c r="L6" t="n">
-        <v>453932.9456373284</v>
+        <v>453898.207711893</v>
       </c>
       <c r="M6" t="n">
-        <v>368877.9177018167</v>
+        <v>368843.179776381</v>
       </c>
       <c r="N6" t="n">
-        <v>453932.9456373289</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="O6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="P6" t="n">
-        <v>453932.9456373285</v>
+        <v>453898.207711893</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,10 +26960,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483759</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>26.03202314681215</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>151.361335334088</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659962</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>127.9034367759739</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718951</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>26.6200563618612</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>125.4638768351531</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.39592962837949e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338196</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>216.857296338707</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>581.2949959490413</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>669.466988500007</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>163.1438255932938</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391854</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170303</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.7309431539454</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060443</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>90.01966967204031</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>442.7406161691672</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>526.8707440555626</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
